--- a/_CLUSTER/groups_time_area/Frost/Fe/groups_counts_area4_Pg.xlsx
+++ b/_CLUSTER/groups_time_area/Frost/Fe/groups_counts_area4_Pg.xlsx
@@ -373,7 +373,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>2</v>
@@ -381,7 +381,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>

--- a/_CLUSTER/groups_time_area/Frost/Fe/groups_counts_area4_Pg.xlsx
+++ b/_CLUSTER/groups_time_area/Frost/Fe/groups_counts_area4_Pg.xlsx
@@ -373,7 +373,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>2</v>
@@ -381,7 +381,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
